--- a/database/tenants.xlsx
+++ b/database/tenants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -70,10 +70,10 @@
     <t>1755343255637</t>
   </si>
   <si>
-    <t>Shreyas Shrethsa</t>
-  </si>
-  <si>
-    <t>Heritage</t>
+    <t>Shreyas Shrestha</t>
+  </si>
+  <si>
+    <t>Heritage Care Home</t>
   </si>
   <si>
     <t>9876543210</t>
@@ -82,7 +82,7 @@
     <t>012345689</t>
   </si>
   <si>
-    <t>Lalitpur</t>
+    <t>Lalitpur-06</t>
   </si>
   <si>
     <t>1755340190541</t>
@@ -94,6 +94,9 @@
     <t>2030-01-01</t>
   </si>
   <si>
+    <t>2029-12-30</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
@@ -128,6 +131,30 @@
   </si>
   <si>
     <t>2030-07-30</t>
+  </si>
+  <si>
+    <t>1755612683928</t>
+  </si>
+  <si>
+    <t>acjhsvc</t>
+  </si>
+  <si>
+    <t>hdbch</t>
+  </si>
+  <si>
+    <t>ihb</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>ahvhb</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2035-07-28</t>
   </si>
 </sst>
 </file>
@@ -505,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -605,8 +632,8 @@
       <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1">
-        <v>47709.76041666667</v>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M2" s="1">
         <v>47709.76041666667</v>
@@ -615,7 +642,7 @@
         <v>135000</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -624,54 +651,54 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3">
         <v>50000</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3">
         <v>10</v>
@@ -680,7 +707,63 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4">
+        <v>2500</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/database/tenants.xlsx
+++ b/database/tenants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -67,94 +67,37 @@
     <t>Status</t>
   </si>
   <si>
-    <t>1755343255637</t>
-  </si>
-  <si>
-    <t>Shreyas Shrestha</t>
-  </si>
-  <si>
-    <t>Heritage Care Home</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>012345689</t>
-  </si>
-  <si>
-    <t>Lalitpur-06</t>
-  </si>
-  <si>
-    <t>1755340190541</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>2030-01-01</t>
-  </si>
-  <si>
-    <t>2029-12-30</t>
+    <t>1755772578364</t>
+  </si>
+  <si>
+    <t>Sudip Maharjan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9865072119</t>
+  </si>
+  <si>
+    <t>Ravi Bhawan</t>
+  </si>
+  <si>
+    <t>1755500229573</t>
+  </si>
+  <si>
+    <t>1st Floor (201)</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2045-08-20</t>
   </si>
   <si>
     <t>month</t>
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>1755500279863</t>
-  </si>
-  <si>
-    <t>Sudip Maharjan</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9865072119</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>Ravi Bhawan</t>
-  </si>
-  <si>
-    <t>1755500229573</t>
-  </si>
-  <si>
-    <t>1st Floor (201)</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2030-07-30</t>
-  </si>
-  <si>
-    <t>1755612683928</t>
-  </si>
-  <si>
-    <t>acjhsvc</t>
-  </si>
-  <si>
-    <t>hdbch</t>
-  </si>
-  <si>
-    <t>ihb</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>ahvhb</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
-    <t>2035-07-28</t>
   </si>
 </sst>
 </file>
@@ -190,9 +133,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -615,34 +557,37 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
       </c>
       <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <v>25000</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="1">
-        <v>47709.76041666667</v>
-      </c>
-      <c r="N2">
-        <v>135000</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -651,119 +596,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3">
-        <v>50000</v>
-      </c>
-      <c r="O3" t="s">
         <v>28</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4">
-        <v>2500</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/database/tenants.xlsx
+++ b/database/tenants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -70,13 +70,16 @@
     <t>1755772578364</t>
   </si>
   <si>
-    <t>Sudip Maharjan</t>
+    <t>Hari Bahadur</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>9865072119</t>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>FD9895-CS69-56</t>
   </si>
   <si>
     <t>Ravi Bhawan</t>
@@ -88,7 +91,13 @@
     <t>1st Floor (201)</t>
   </si>
   <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
     <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2030-08-14</t>
   </si>
   <si>
     <t>2045-08-20</t>
@@ -557,37 +566,37 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2">
         <v>25000</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -596,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/database/tenants.xlsx
+++ b/database/tenants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -107,6 +107,48 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>1756651364942</t>
+  </si>
+  <si>
+    <t>Sudip Maharjan</t>
+  </si>
+  <si>
+    <t>9865072119</t>
+  </si>
+  <si>
+    <t>1755340190541</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2030-07-31</t>
+  </si>
+  <si>
+    <t>1756651403346</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>98562</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Kulshwor</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2035-08-31</t>
   </si>
 </sst>
 </file>
@@ -483,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -608,6 +650,115 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3">
+        <v>50000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4">
+        <v>24999</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/database/tenants.xlsx
+++ b/database/tenants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -67,88 +67,37 @@
     <t>Status</t>
   </si>
   <si>
-    <t>1755772578364</t>
-  </si>
-  <si>
-    <t>Hari Bahadur</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>FD9895-CS69-56</t>
-  </si>
-  <si>
-    <t>Ravi Bhawan</t>
-  </si>
-  <si>
-    <t>1755500229573</t>
-  </si>
-  <si>
-    <t>1st Floor (201)</t>
-  </si>
-  <si>
-    <t>2025-08-15</t>
-  </si>
-  <si>
-    <t>2025-08-21</t>
-  </si>
-  <si>
-    <t>2030-08-14</t>
-  </si>
-  <si>
-    <t>2045-08-20</t>
+    <t>1756714898111</t>
+  </si>
+  <si>
+    <t>Sudip</t>
+  </si>
+  <si>
+    <t>Mero Company</t>
+  </si>
+  <si>
+    <t>54631286</t>
+  </si>
+  <si>
+    <t>Hag1278-9271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuleshwor </t>
+  </si>
+  <si>
+    <t>1756714830530</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2030-08-31</t>
   </si>
   <si>
     <t>month</t>
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>1756651364942</t>
-  </si>
-  <si>
-    <t>Sudip Maharjan</t>
-  </si>
-  <si>
-    <t>9865072119</t>
-  </si>
-  <si>
-    <t>1755340190541</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2030-07-31</t>
-  </si>
-  <si>
-    <t>1756651403346</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>98562</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Kulshwor</t>
-  </si>
-  <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>2035-08-31</t>
   </si>
 </sst>
 </file>
@@ -525,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -616,29 +565,26 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <v>50000</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2">
-        <v>25000</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -647,116 +593,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3">
-        <v>50000</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4">
-        <v>24999</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
